--- a/bleh.xlsx
+++ b/bleh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jovma\Documents\ASA-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{996A5206-BE55-4FBB-9D5F-55D5FAC9C890}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8348941E-CC5A-43AD-BB3A-ECB22C8F7A60}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4E2C7065-60F1-4806-847B-380CECD93E2A}"/>
   </bookViews>
@@ -22,6 +22,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>Espaco</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,8 +69,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -72,6 +89,1049 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.6899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.78E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E880-44DE-8F63-C25EF310B99F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="502071640"/>
+        <c:axId val="502075576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="502071640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> de vértices</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502075576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="502075576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> de execuçãp</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502071640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB75F9D2-3C70-47F0-9F20-CE2CBBEE58F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,270 +1431,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1ADE880-2FA1-4417-A32F-D73663B1198E}">
-  <dimension ref="C2:C56"/>
+  <dimension ref="D1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56">
-        <v>1.7999999999999999E-2</v>
-      </c>
+    <row r="1" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="G2">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+      <c r="E3">
+        <v>72</v>
+      </c>
+      <c r="F3">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G3">
+        <v>9284</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <v>156</v>
+      </c>
+      <c r="F4">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>22516</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <v>272</v>
+      </c>
+      <c r="F5">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <v>420</v>
+      </c>
+      <c r="F6">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <v>10100</v>
+      </c>
+      <c r="F7">
+        <v>5.1299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <v>40200</v>
+      </c>
+      <c r="F8">
+        <v>0.25219999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <v>90300</v>
+      </c>
+      <c r="F9">
+        <v>0.82769999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="E10">
+        <v>160400</v>
+      </c>
+      <c r="F10">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="D22:D32"/>
+    <mergeCell ref="D33:D42"/>
+    <mergeCell ref="D43:D52"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/bleh.xlsx
+++ b/bleh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jovma\Documents\ASA-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8348941E-CC5A-43AD-BB3A-ECB22C8F7A60}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4965E68-BA38-4D04-9869-93B4826FB623}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4E2C7065-60F1-4806-847B-380CECD93E2A}"/>
   </bookViews>
@@ -105,7 +105,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -153,10 +183,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -183,42 +213,48 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>160400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$10</c:f>
+              <c:f>Sheet1!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6899999999999998E-2</c:v>
+                  <c:v>2.0299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.78E-2</c:v>
+                  <c:v>2.0500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8200000000000001E-2</c:v>
+                  <c:v>2.0199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1899999999999999E-2</c:v>
+                  <c:v>2.0199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.01E-2</c:v>
+                  <c:v>2.07E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1299999999999998E-2</c:v>
+                  <c:v>5.0700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25219999999999998</c:v>
+                  <c:v>0.22109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82769999999999999</c:v>
+                  <c:v>0.70240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.19</c:v>
+                  <c:v>1.7353000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -226,7 +262,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E880-44DE-8F63-C25EF310B99F}"/>
+              <c16:uniqueId val="{00000000-7038-4162-BC72-BD0D022CA693}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -238,11 +274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="502071640"/>
-        <c:axId val="502075576"/>
+        <c:axId val="482780864"/>
+        <c:axId val="482776272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="502071640"/>
+        <c:axId val="482780864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -262,66 +298,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Número</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> de vértices</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -359,12 +335,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502075576"/>
+        <c:crossAx val="482776272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="502075576"/>
+        <c:axId val="482776272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,66 +360,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Tempo</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> de execuçãp</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -481,7 +397,368 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502071640"/>
+        <c:crossAx val="482780864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>607048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2413048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5419048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9625048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15031048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04F2-440D-988D-DC811CE25CF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="328480952"/>
+        <c:axId val="480487032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="328480952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480487032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="480487032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328480952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -577,7 +854,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1098,22 +1931,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB75F9D2-3C70-47F0-9F20-CE2CBBEE58F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6FB0FEF-F146-488F-8C93-388C3BBC871C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,6 +1959,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A8709B-1314-4FB2-818E-B5CE05B54A05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1431,15 +2300,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1ADE880-2FA1-4417-A32F-D73663B1198E}">
-  <dimension ref="D1:G52"/>
+  <dimension ref="C1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -1450,115 +2322,172 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>3.605</v>
+      </c>
+      <c r="D2" s="1">
+        <f>AVERAGE(C2:C11)</f>
+        <v>3.5985</v>
+      </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="F2">
-        <v>1.6899999999999998E-2</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="G2">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>3.573</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3">
         <v>72</v>
       </c>
       <c r="F3">
-        <v>1.78E-2</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="G3">
-        <v>9284</v>
-      </c>
-    </row>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+        <v>5368</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3.61</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4">
         <v>156</v>
       </c>
       <c r="F4">
-        <v>1.8200000000000001E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="G4">
-        <v>22516</v>
-      </c>
-    </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+        <v>10408</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>3.573</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5">
         <v>272</v>
       </c>
       <c r="F5">
-        <v>2.1899999999999999E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="G5">
-        <v>44900</v>
-      </c>
-    </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+        <v>17368</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3.645</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6">
         <v>420</v>
       </c>
       <c r="F6">
-        <v>2.01E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+        <v>2.07E-2</v>
+      </c>
+      <c r="G6">
+        <v>26248</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3.6240000000000001</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7">
         <v>10100</v>
       </c>
       <c r="F7">
-        <v>5.1299999999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>607048</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3.5630000000000002</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8">
         <v>40200</v>
       </c>
       <c r="F8">
-        <v>0.25219999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="G8">
+        <v>2413048</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>3.5419999999999998</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9">
         <v>90300</v>
       </c>
       <c r="F9">
-        <v>0.82769999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+        <v>0.70240000000000002</v>
+      </c>
+      <c r="G9">
+        <v>5419048</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>3.601</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10">
         <v>160400</v>
       </c>
       <c r="F10">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+        <v>1.7353000000000001</v>
+      </c>
+      <c r="G10">
+        <v>9625048</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>3.649</v>
+      </c>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>250500</v>
+      </c>
+      <c r="F11">
+        <v>3.5985</v>
+      </c>
+      <c r="G11">
+        <v>15031048</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
@@ -1678,6 +2607,7 @@
     <mergeCell ref="D43:D52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>